--- a/p502.xlsx
+++ b/p502.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dragonnomada/Desktop/banjercito/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2B94278-08FB-524C-9D39-EDBB932B91EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBA272C8-5754-D644-9A94-2835FF115E82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16400" xr2:uid="{2EEE8B39-635D-134B-811C-9C4717BEA5A2}"/>
+    <workbookView xWindow="2780" yWindow="2400" windowWidth="28800" windowHeight="16400" xr2:uid="{2EEE8B39-635D-134B-811C-9C4717BEA5A2}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -560,7 +560,7 @@
   <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="166" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
